--- a/Code/Results/Cases/Case_2_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.74642006074293</v>
+        <v>14.92828380041271</v>
       </c>
       <c r="C2">
-        <v>20.75018480345785</v>
+        <v>11.99753558411496</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.39226433764032</v>
+        <v>16.61415612428156</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>26.64588427272778</v>
+        <v>21.41482617422153</v>
       </c>
       <c r="H2">
-        <v>7.902850966088771</v>
+        <v>11.82415776307961</v>
       </c>
       <c r="I2">
-        <v>9.150599188702294</v>
+        <v>15.76941180630444</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.01939163683923</v>
+        <v>14.09274380400131</v>
       </c>
       <c r="C3">
-        <v>19.36441638808875</v>
+        <v>11.27412348347575</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.11549609597897</v>
+        <v>15.66065143845027</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>24.84578355972934</v>
+        <v>21.20914396109521</v>
       </c>
       <c r="H3">
-        <v>7.818071488501153</v>
+        <v>11.89768919172315</v>
       </c>
       <c r="I3">
-        <v>9.421001860749394</v>
+        <v>15.95849712796945</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.90222406832564</v>
+        <v>13.55434689630764</v>
       </c>
       <c r="C4">
-        <v>18.47091380902529</v>
+        <v>10.8038133412604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.65981393922338</v>
+        <v>15.05010367973166</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>23.78784484451914</v>
+        <v>21.10357408479674</v>
       </c>
       <c r="H4">
-        <v>7.787424038362957</v>
+        <v>11.94770839264732</v>
       </c>
       <c r="I4">
-        <v>9.626205780618061</v>
+        <v>16.08217755868612</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.43253594552458</v>
+        <v>13.32874625092809</v>
       </c>
       <c r="C5">
-        <v>18.09594054184319</v>
+        <v>10.60561920418915</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.0515359294551</v>
+        <v>14.79525727178504</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>23.36650216217382</v>
+        <v>21.06578984053047</v>
       </c>
       <c r="H5">
-        <v>7.77994014249129</v>
+        <v>11.96930441872635</v>
       </c>
       <c r="I5">
-        <v>9.718425613393086</v>
+        <v>16.13447065011653</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.35366860351374</v>
+        <v>13.29091701990578</v>
       </c>
       <c r="C6">
-        <v>18.03301669305123</v>
+        <v>10.57231545182811</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.94960598476145</v>
+        <v>14.75258406190304</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>23.2971447175225</v>
+        <v>21.05983238409871</v>
       </c>
       <c r="H6">
-        <v>7.778988517490141</v>
+        <v>11.97296332283882</v>
       </c>
       <c r="I6">
-        <v>9.734224181188136</v>
+        <v>16.14326777136863</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.89594832556374</v>
+        <v>13.55132920276886</v>
       </c>
       <c r="C7">
-        <v>18.46590094565569</v>
+        <v>10.8011668507541</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.65167222947055</v>
+        <v>15.04669080934304</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>23.7821221881257</v>
+        <v>21.10304329375008</v>
       </c>
       <c r="H7">
-        <v>7.787303348609707</v>
+        <v>11.94799474957776</v>
       </c>
       <c r="I7">
-        <v>9.62741622441758</v>
+        <v>16.08287515798285</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.16261974054845</v>
+        <v>14.64555268363097</v>
       </c>
       <c r="C8">
-        <v>20.28112674304818</v>
+        <v>11.75354275716681</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.61886519157682</v>
+        <v>16.29073957883498</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>26.00676439627212</v>
+        <v>21.33962913575249</v>
       </c>
       <c r="H8">
-        <v>7.86895217140103</v>
+        <v>11.84849331251114</v>
       </c>
       <c r="I8">
-        <v>9.234902438393174</v>
+        <v>15.83302626674619</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.16549943083783</v>
+        <v>16.58379255138533</v>
       </c>
       <c r="C9">
-        <v>23.51035011177047</v>
+        <v>13.41291302460753</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.00781629991573</v>
+        <v>18.64827316954648</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>30.93858511694923</v>
+        <v>21.96570745839082</v>
       </c>
       <c r="H9">
-        <v>8.215071085207303</v>
+        <v>11.69255198805081</v>
       </c>
       <c r="I9">
-        <v>8.839503751856483</v>
+        <v>15.40388959855343</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.85040373705153</v>
+        <v>17.87493243604384</v>
       </c>
       <c r="C10">
-        <v>25.69461910313665</v>
+        <v>14.50450098711207</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.750986440603</v>
+        <v>20.31743651428219</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>34.69593173990648</v>
+        <v>22.52001250217444</v>
       </c>
       <c r="H10">
-        <v>8.603625506217014</v>
+        <v>11.60259779595784</v>
       </c>
       <c r="I10">
-        <v>8.940622811444392</v>
+        <v>15.1266395604282</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.01982000394564</v>
+        <v>18.43255036554023</v>
       </c>
       <c r="C11">
-        <v>26.65106819608209</v>
+        <v>14.97339197676254</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.41942607215476</v>
+        <v>21.03458920740287</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>36.43462214151839</v>
+        <v>22.79132675816599</v>
       </c>
       <c r="H11">
-        <v>8.9757994335475</v>
+        <v>11.56717610430719</v>
       </c>
       <c r="I11">
-        <v>9.513060175965663</v>
+        <v>15.00899687625171</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.45552569439224</v>
+        <v>18.63937735329088</v>
       </c>
       <c r="C12">
-        <v>27.00827036567057</v>
+        <v>15.1469729129337</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.04755696716634</v>
+        <v>21.30013390598946</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>37.09813178439875</v>
+        <v>22.89668973989112</v>
       </c>
       <c r="H12">
-        <v>9.13567592837679</v>
+        <v>11.554566281735</v>
       </c>
       <c r="I12">
-        <v>9.735328771847268</v>
+        <v>14.96568846710669</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.36199957222311</v>
+        <v>18.59502682446886</v>
       </c>
       <c r="C13">
-        <v>26.93155569739369</v>
+        <v>15.10976600132007</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.91241820911778</v>
+        <v>21.24321150362037</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>36.9549886522116</v>
+        <v>22.87388354343485</v>
       </c>
       <c r="H13">
-        <v>9.101164697834268</v>
+        <v>11.55724608860642</v>
       </c>
       <c r="I13">
-        <v>9.687213489257561</v>
+        <v>14.97496019849636</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0558064380467</v>
+        <v>18.44965321523435</v>
       </c>
       <c r="C14">
-        <v>26.68055302010406</v>
+        <v>14.98775228376908</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.47116822722631</v>
+        <v>21.05655627849213</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>36.48910100145628</v>
+        <v>22.79994328107629</v>
       </c>
       <c r="H14">
-        <v>8.988917367009501</v>
+        <v>11.56612250796307</v>
       </c>
       <c r="I14">
-        <v>9.53123576369261</v>
+        <v>15.00540888544453</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.86733732554577</v>
+        <v>18.3600422511718</v>
       </c>
       <c r="C15">
-        <v>26.52616937959675</v>
+        <v>14.9124974394373</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.2004535157266</v>
+        <v>20.94144096039223</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>36.20442765466652</v>
+        <v>22.75499009082952</v>
       </c>
       <c r="H15">
-        <v>8.920389427812474</v>
+        <v>11.57166460371734</v>
       </c>
       <c r="I15">
-        <v>9.436412712132425</v>
+        <v>15.0242217529819</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.77296236318113</v>
+        <v>17.8378874889913</v>
       </c>
       <c r="C16">
-        <v>25.63139425152191</v>
+        <v>14.47330101203381</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.64136197939295</v>
+        <v>20.26972372216343</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>34.58296392842205</v>
+        <v>22.50265589901021</v>
       </c>
       <c r="H16">
-        <v>8.590594271680407</v>
+        <v>11.60502444156808</v>
       </c>
       <c r="I16">
-        <v>8.903980732634869</v>
+        <v>15.1345001852798</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.08851990611817</v>
+        <v>17.50990409381095</v>
       </c>
       <c r="C17">
-        <v>25.07319373114218</v>
+        <v>14.19677965641909</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.67694414629838</v>
+        <v>19.84687551069397</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>33.59631073214221</v>
+        <v>22.35267315034438</v>
       </c>
       <c r="H17">
-        <v>8.480165199608813</v>
+        <v>11.62690721647409</v>
       </c>
       <c r="I17">
-        <v>8.833657725083366</v>
+        <v>15.20433884361781</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.6899324995326</v>
+        <v>17.31846094261863</v>
       </c>
       <c r="C18">
-        <v>24.74860638036511</v>
+        <v>14.03512633843731</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.11891550945783</v>
+        <v>19.59969409381714</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>33.03151557668454</v>
+        <v>22.26821906330711</v>
       </c>
       <c r="H18">
-        <v>8.419768695733504</v>
+        <v>11.64001043134008</v>
       </c>
       <c r="I18">
-        <v>8.823371733727301</v>
+        <v>15.24530502528894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.55412395684229</v>
+        <v>17.25316333717803</v>
       </c>
       <c r="C19">
-        <v>24.63809115839058</v>
+        <v>13.97994579003831</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.92937126261105</v>
+        <v>19.51531968454354</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>32.84072836635006</v>
+        <v>22.239939433059</v>
       </c>
       <c r="H19">
-        <v>8.39984500252555</v>
+        <v>11.6445353253822</v>
       </c>
       <c r="I19">
-        <v>8.821285639211576</v>
+        <v>15.25931170741041</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.1618862430444</v>
+        <v>17.54510828712449</v>
       </c>
       <c r="C20">
-        <v>25.13297753910629</v>
+        <v>14.22648548618738</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.77994333253861</v>
+        <v>19.89229906811818</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>33.70105676302648</v>
+        <v>22.36845245877806</v>
       </c>
       <c r="H20">
-        <v>8.491595286610076</v>
+        <v>11.62452417536599</v>
       </c>
       <c r="I20">
-        <v>8.836236664303964</v>
+        <v>15.19682178237847</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.14593318735048</v>
+        <v>18.49247088483097</v>
       </c>
       <c r="C21">
-        <v>26.75441065369055</v>
+        <v>15.02369859572449</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.60086236676563</v>
+        <v>21.1115446794511</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>36.62579636710181</v>
+        <v>22.82159127559113</v>
       </c>
       <c r="H21">
-        <v>9.021839406759687</v>
+        <v>11.56349337694084</v>
       </c>
       <c r="I21">
-        <v>9.576900437162031</v>
+        <v>14.99643153341801</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.40128303573494</v>
+        <v>19.08636680468321</v>
       </c>
       <c r="C22">
-        <v>27.78527571687007</v>
+        <v>15.52154041087393</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.42387370914314</v>
+        <v>21.87328813007909</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>38.56769002778976</v>
+        <v>23.1329589946284</v>
       </c>
       <c r="H22">
-        <v>9.490579885228287</v>
+        <v>11.52829611178482</v>
       </c>
       <c r="I22">
-        <v>10.2341318378963</v>
+        <v>14.87270500679297</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.73493310006842</v>
+        <v>18.77171981728474</v>
       </c>
       <c r="C23">
-        <v>27.23758471210627</v>
+        <v>15.25795256534736</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.45230005253286</v>
+        <v>21.46993121613931</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>37.52810678220114</v>
+        <v>22.96543051484955</v>
       </c>
       <c r="H23">
-        <v>9.239405396247342</v>
+        <v>11.54664821229947</v>
       </c>
       <c r="I23">
-        <v>9.880379180210449</v>
+        <v>14.93807049593224</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.12873320881311</v>
+        <v>17.5292014410394</v>
       </c>
       <c r="C24">
-        <v>25.10596073853198</v>
+        <v>14.21306382068349</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.7333886179449</v>
+        <v>19.87177579057829</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>33.65369352818455</v>
+        <v>22.361313100824</v>
       </c>
       <c r="H24">
-        <v>8.486418143113877</v>
+        <v>11.62559992157031</v>
       </c>
       <c r="I24">
-        <v>8.835044645077872</v>
+        <v>15.20021770855998</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.12865721227898</v>
+        <v>16.08241519618651</v>
       </c>
       <c r="C25">
-        <v>22.67090198365082</v>
+        <v>12.98639045598958</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.59163116741721</v>
+        <v>17.99595921573317</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>29.57696588909904</v>
+        <v>21.77937139203071</v>
       </c>
       <c r="H25">
-        <v>8.099308633416126</v>
+        <v>11.73046816574957</v>
       </c>
       <c r="I25">
-        <v>8.896963201771335</v>
+        <v>15.51337592587881</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.92828380041271</v>
+        <v>25.74642006074293</v>
       </c>
       <c r="C2">
-        <v>11.99753558411496</v>
+        <v>20.75018480345796</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.61415612428156</v>
+        <v>30.39226433764039</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.41482617422153</v>
+        <v>26.6458842727279</v>
       </c>
       <c r="H2">
-        <v>11.82415776307961</v>
+        <v>7.902850966088727</v>
       </c>
       <c r="I2">
-        <v>15.76941180630444</v>
+        <v>9.150599188702211</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.09274380400131</v>
+        <v>24.01939163683921</v>
       </c>
       <c r="C3">
-        <v>11.27412348347575</v>
+        <v>19.3644163880886</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.66065143845027</v>
+        <v>28.11549609597897</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>21.20914396109521</v>
+        <v>24.84578355972934</v>
       </c>
       <c r="H3">
-        <v>11.89768919172315</v>
+        <v>7.818071488501174</v>
       </c>
       <c r="I3">
-        <v>15.95849712796945</v>
+        <v>9.421001860749435</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.55434689630764</v>
+        <v>22.90222406832566</v>
       </c>
       <c r="C4">
-        <v>10.8038133412604</v>
+        <v>18.47091380902515</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.05010367973166</v>
+        <v>26.65981393922335</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>21.10357408479674</v>
+        <v>23.78784484451905</v>
       </c>
       <c r="H4">
-        <v>11.94770839264732</v>
+        <v>7.787424038362939</v>
       </c>
       <c r="I4">
-        <v>16.08217755868612</v>
+        <v>9.626205780617941</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32874625092809</v>
+        <v>22.43253594552469</v>
       </c>
       <c r="C5">
-        <v>10.60561920418915</v>
+        <v>18.09594054184311</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.79525727178504</v>
+        <v>26.05153592945522</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>21.06578984053047</v>
+        <v>23.36650216217397</v>
       </c>
       <c r="H5">
-        <v>11.96930441872635</v>
+        <v>7.779940142491322</v>
       </c>
       <c r="I5">
-        <v>16.13447065011653</v>
+        <v>9.718425613393011</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.29091701990578</v>
+        <v>22.35366860351379</v>
       </c>
       <c r="C6">
-        <v>10.57231545182811</v>
+        <v>18.03301669305112</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.75258406190304</v>
+        <v>25.9496059847615</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>21.05983238409871</v>
+        <v>23.29714471752267</v>
       </c>
       <c r="H6">
-        <v>11.97296332283882</v>
+        <v>7.778988517490173</v>
       </c>
       <c r="I6">
-        <v>16.14326777136863</v>
+        <v>9.734224181188168</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.55132920276886</v>
+        <v>22.89594832556382</v>
       </c>
       <c r="C7">
-        <v>10.8011668507541</v>
+        <v>18.46590094565569</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.04669080934304</v>
+        <v>26.65167222947048</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>21.10304329375008</v>
+        <v>23.78212218812576</v>
       </c>
       <c r="H7">
-        <v>11.94799474957776</v>
+        <v>7.78730334860972</v>
       </c>
       <c r="I7">
-        <v>16.08287515798285</v>
+        <v>9.627416224417574</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.64555268363097</v>
+        <v>25.16261974054839</v>
       </c>
       <c r="C8">
-        <v>11.75354275716681</v>
+        <v>20.28112674304825</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.29073957883498</v>
+        <v>29.61886519157681</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.33962913575249</v>
+        <v>26.00676439627213</v>
       </c>
       <c r="H8">
-        <v>11.84849331251114</v>
+        <v>7.868952171401185</v>
       </c>
       <c r="I8">
-        <v>15.83302626674619</v>
+        <v>9.234902438393451</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.58379255138533</v>
+        <v>29.16549943083767</v>
       </c>
       <c r="C9">
-        <v>13.41291302460753</v>
+        <v>23.51035011177042</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.64827316954648</v>
+        <v>35.00781629991563</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>21.96570745839082</v>
+        <v>30.9385851169491</v>
       </c>
       <c r="H9">
-        <v>11.69255198805081</v>
+        <v>8.215071085207363</v>
       </c>
       <c r="I9">
-        <v>15.40388959855343</v>
+        <v>8.839503751856737</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87493243604384</v>
+        <v>31.85040373705155</v>
       </c>
       <c r="C10">
-        <v>14.50450098711207</v>
+        <v>25.69461910313655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.31743651428219</v>
+        <v>38.75098644060296</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>22.52001250217444</v>
+        <v>34.69593173990649</v>
       </c>
       <c r="H10">
-        <v>11.60259779595784</v>
+        <v>8.603625506217053</v>
       </c>
       <c r="I10">
-        <v>15.1266395604282</v>
+        <v>8.940622811444401</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43255036554023</v>
+        <v>33.0198200039456</v>
       </c>
       <c r="C11">
-        <v>14.97339197676254</v>
+        <v>26.65106819608226</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.03458920740287</v>
+        <v>40.4194260721547</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>22.79132675816599</v>
+        <v>36.43462214151828</v>
       </c>
       <c r="H11">
-        <v>11.56717610430719</v>
+        <v>8.97579943354744</v>
       </c>
       <c r="I11">
-        <v>15.00899687625171</v>
+        <v>9.513060175965574</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.63937735329088</v>
+        <v>33.45552569439216</v>
       </c>
       <c r="C12">
-        <v>15.1469729129337</v>
+        <v>27.00827036567054</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.30013390598946</v>
+        <v>41.04755696716635</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>22.89668973989112</v>
+        <v>37.09813178439867</v>
       </c>
       <c r="H12">
-        <v>11.554566281735</v>
+        <v>9.135675928376779</v>
       </c>
       <c r="I12">
-        <v>14.96568846710669</v>
+        <v>9.735328771847245</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.59502682446886</v>
+        <v>33.3619995722231</v>
       </c>
       <c r="C13">
-        <v>15.10976600132007</v>
+        <v>26.93155569739365</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.24321150362037</v>
+        <v>40.91241820911782</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>22.87388354343485</v>
+        <v>36.95498865221179</v>
       </c>
       <c r="H13">
-        <v>11.55724608860642</v>
+        <v>9.101164697834291</v>
       </c>
       <c r="I13">
-        <v>14.97496019849636</v>
+        <v>9.687213489257672</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.44965321523435</v>
+        <v>33.05580643804675</v>
       </c>
       <c r="C14">
-        <v>14.98775228376908</v>
+        <v>26.68055302010407</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.05655627849213</v>
+        <v>40.47116822722646</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>22.79994328107629</v>
+        <v>36.48910100145677</v>
       </c>
       <c r="H14">
-        <v>11.56612250796307</v>
+        <v>8.988917367009623</v>
       </c>
       <c r="I14">
-        <v>15.00540888544453</v>
+        <v>9.531235763692854</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3600422511718</v>
+        <v>32.86733732554586</v>
       </c>
       <c r="C15">
-        <v>14.9124974394373</v>
+        <v>26.52616937959682</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.94144096039223</v>
+        <v>40.20045351572674</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>22.75499009082952</v>
+        <v>36.20442765466665</v>
       </c>
       <c r="H15">
-        <v>11.57166460371734</v>
+        <v>8.920389427812534</v>
       </c>
       <c r="I15">
-        <v>15.0242217529819</v>
+        <v>9.43641271213253</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.8378874889913</v>
+        <v>31.77296236318114</v>
       </c>
       <c r="C16">
-        <v>14.47330101203381</v>
+        <v>25.6313942515219</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.26972372216343</v>
+        <v>38.64136197939298</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>22.50265589901021</v>
+        <v>34.58296392842195</v>
       </c>
       <c r="H16">
-        <v>11.60502444156808</v>
+        <v>8.590594271680432</v>
       </c>
       <c r="I16">
-        <v>15.1345001852798</v>
+        <v>8.903980732634842</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.50990409381095</v>
+        <v>31.08851990611816</v>
       </c>
       <c r="C17">
-        <v>14.19677965641909</v>
+        <v>25.07319373114217</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.84687551069397</v>
+        <v>37.67694414629833</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>22.35267315034438</v>
+        <v>33.59631073214208</v>
       </c>
       <c r="H17">
-        <v>11.62690721647409</v>
+        <v>8.4801651996088</v>
       </c>
       <c r="I17">
-        <v>15.20433884361781</v>
+        <v>8.833657725083356</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.31846094261863</v>
+        <v>30.68993249953258</v>
       </c>
       <c r="C18">
-        <v>14.03512633843731</v>
+        <v>24.74860638036507</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.59969409381714</v>
+        <v>37.1189155094578</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>22.26821906330711</v>
+        <v>33.03151557668446</v>
       </c>
       <c r="H18">
-        <v>11.64001043134008</v>
+        <v>8.419768695733541</v>
       </c>
       <c r="I18">
-        <v>15.24530502528894</v>
+        <v>8.823371733727374</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.25316333717803</v>
+        <v>30.55412395684228</v>
       </c>
       <c r="C19">
-        <v>13.97994579003831</v>
+        <v>24.63809115839058</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.51531968454354</v>
+        <v>36.92937126261107</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>22.239939433059</v>
+        <v>32.84072836635008</v>
       </c>
       <c r="H19">
-        <v>11.6445353253822</v>
+        <v>8.399845002525595</v>
       </c>
       <c r="I19">
-        <v>15.25931170741041</v>
+        <v>8.821285639211649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.54510828712449</v>
+        <v>31.16188624304442</v>
       </c>
       <c r="C20">
-        <v>14.22648548618738</v>
+        <v>25.13297753910623</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.89229906811818</v>
+        <v>37.77994333253859</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>22.36845245877806</v>
+        <v>33.70105676302627</v>
       </c>
       <c r="H20">
-        <v>11.62452417536599</v>
+        <v>8.491595286610035</v>
       </c>
       <c r="I20">
-        <v>15.19682178237847</v>
+        <v>8.836236664303938</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.49247088483097</v>
+        <v>33.14593318735051</v>
       </c>
       <c r="C21">
-        <v>15.02369859572449</v>
+        <v>26.75441065369063</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.1115446794511</v>
+        <v>40.60086236676558</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>22.82159127559113</v>
+        <v>36.62579636710187</v>
       </c>
       <c r="H21">
-        <v>11.56349337694084</v>
+        <v>9.021839406759716</v>
       </c>
       <c r="I21">
-        <v>14.99643153341801</v>
+        <v>9.576900437162081</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.08636680468321</v>
+        <v>34.40128303573483</v>
       </c>
       <c r="C22">
-        <v>15.52154041087393</v>
+        <v>27.78527571687003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.87328813007909</v>
+        <v>42.42387370914309</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>23.1329589946284</v>
+        <v>38.5676900277895</v>
       </c>
       <c r="H22">
-        <v>11.52829611178482</v>
+        <v>9.49057988522822</v>
       </c>
       <c r="I22">
-        <v>14.87270500679297</v>
+        <v>10.23413183789616</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.77171981728474</v>
+        <v>33.73493310006847</v>
       </c>
       <c r="C23">
-        <v>15.25795256534736</v>
+        <v>27.23758471210625</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.46993121613931</v>
+        <v>41.45230005253283</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>22.96543051484955</v>
+        <v>37.52810678220128</v>
       </c>
       <c r="H23">
-        <v>11.54664821229947</v>
+        <v>9.239405396247388</v>
       </c>
       <c r="I23">
-        <v>14.93807049593224</v>
+        <v>9.880379180210552</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.5292014410394</v>
+        <v>31.12873320881308</v>
       </c>
       <c r="C24">
-        <v>14.21306382068349</v>
+        <v>25.10596073853203</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.87177579057829</v>
+        <v>37.73338861794503</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>22.361313100824</v>
+        <v>33.65369352818472</v>
       </c>
       <c r="H24">
-        <v>11.62559992157031</v>
+        <v>8.486418143113919</v>
       </c>
       <c r="I24">
-        <v>15.20021770855998</v>
+        <v>8.835044645077941</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.08241519618651</v>
+        <v>28.128657212279</v>
       </c>
       <c r="C25">
-        <v>12.98639045598958</v>
+        <v>22.67090198365087</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.99595921573317</v>
+        <v>33.59163116741725</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>21.77937139203071</v>
+        <v>29.57696588909912</v>
       </c>
       <c r="H25">
-        <v>11.73046816574957</v>
+        <v>8.099308633416133</v>
       </c>
       <c r="I25">
-        <v>15.51337592587881</v>
+        <v>8.896963201771356</v>
       </c>
       <c r="J25">
         <v>0</v>
